--- a/testfil2.xlsx
+++ b/testfil2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Isabel\Documents\Hermit\FileToPDF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE8CC5C-C629-459F-B470-467675FA312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A048CAF-9695-4C26-9278-9BF74CEA60C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23505" yWindow="1995" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -203,7 +203,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
